--- a/output.xlsx
+++ b/output.xlsx
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Id tâche</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type de tâche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jour</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Heure début</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sillon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Occupation des voies par chantier (optim)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WPY_REC</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WPY_FOR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>WPY_DEP</t>
         </is>
@@ -458,50 +488,1868 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>DEB_A2_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Taux max d'occupation des voies (en %)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>DEB_A1_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Nombre max de voies occupées</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>FOR_D2_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Nombre total de voies à disposition</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FOR_D1_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DEG_D2_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DEG_D1_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DEB_A3_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FOR_D3_08/08/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DEG_D3_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DEB_A2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DEB_A1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FOR_D2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FOR_D1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DEG_D2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DEG_D1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DEB_A3_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FOR_D3_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DEG_D3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DEB_A1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DEB_A2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FOR_D2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FOR_D1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DEG_D2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DEG_D1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DEB_A3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FOR_D3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DEG_D3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DEB_A1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DEB_A2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FOR_D2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FOR_D1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DEG_D2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DEG_D1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DEB_A3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FOR_D3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DEG_D3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DEB_A1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DEB_A2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FOR_D1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FOR_D2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>15</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DEG_D1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DEG_D2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DEB_A3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>15</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FOR_D3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>15</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DEG_D3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DEB_A4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FOR_D4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DEG_D4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DEB_A3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>15</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FOR_D3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DEG_D3_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>15</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DEB_A4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FOR_D4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DEG_D4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>15</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Id tâche</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type de tâche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jour</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Heure début</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sillon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Occupation des voies par chantier (optim)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WPY_REC</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WPY_FOR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>WPY_DEP</t>
         </is>
@@ -458,50 +488,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>DEB_sillon1_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sillon1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Taux max d'occupation des voies (en %)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>DEB_sillon2_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sillon2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Nombre max de voies occupées</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="J3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>DEB_sillon3_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sillon3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Nombre total de voies à disposition</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="J4" t="n">
         <v>3</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FOR_sillon4_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sillon4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FOR_sillon5_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sillon5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FOR_sillon6_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sillon6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DEG_sillon4_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sillon4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DEG_sillon5_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sillon5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DEG_sillon6_02/05/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sillon6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +455,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Arr/Dep</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Heure début</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Durée</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sillon</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Occupation des voies par chantier (optim)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WPY_REC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>WPY_FOR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>WPY_DEP</t>
         </is>
@@ -488,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEB_sillon1_02/05/2023</t>
+          <t>DEB_A1_08/08/2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,41 +507,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>sillon1</t>
-        </is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44781.41666666666</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Taux max d'occupation des voies (en %)</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DEB_sillon2_02/05/2023</t>
+          <t>DEB_A2_08/08/2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,85 +554,91 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sillon2</t>
-        </is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44781.47916666666</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Nombre max de voies occupées</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEB_sillon3_02/05/2023</t>
+          <t>FOR_D1_08/08/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEB</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>sillon3</t>
-        </is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44781.75</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Nombre total de voies à disposition</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FOR_sillon4_02/05/2023</t>
+          <t>FOR_D2_08/08/2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -630,167 +648,182 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>sillon4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44781.95833333334</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FOR_sillon5_02/05/2023</t>
+          <t>DEG_D1_08/08/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>sillon5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44781.75</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FOR_sillon6_02/05/2023</t>
+          <t>DEG_D2_08/08/2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>DEG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>sillon6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44781.95833333334</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DEG_sillon4_02/05/2023</t>
+          <t>DEB_A3_08/08/2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>DEB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>sillon4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44781.91666666666</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DEG_sillon5_02/05/2023</t>
+          <t>FOR_D3_08/08/2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEG</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>15</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>sillon5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44782.16666666666</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DEG_sillon6_02/05/2023</t>
+          <t>DEG_D3_09/08/2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -800,26 +833,1694 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>02/05/2023</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20:45</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>sillon6</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44782.16666666666</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03:15</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DEB_A1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44782.41666666666</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DEB_A2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44782.47916666666</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FOR_D1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44782.75</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FOR_D2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44782.95833333334</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DEG_D1_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44782.75</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DEG_D2_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44782.95833333334</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DEB_A3_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44782.91666666666</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FOR_D3_09/08/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44783.16666666666</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DEG_D3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44783.16666666666</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DEB_A1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44783.41666666666</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DEB_A2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44783.47916666666</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FOR_D1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44783.75</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FOR_D2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44783.95833333334</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DEG_D1_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44783.75</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DEG_D2_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44783.95833333334</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>15</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DEB_A3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44783.91666666666</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>15</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FOR_D3_10/08/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10/08/2022</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44784.16666666666</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DEG_D3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44784.16666666666</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DEB_A1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44784.41666666666</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DEB_A2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44784.47916666666</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FOR_D1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44784.75</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FOR_D2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44784.95833333334</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DEG_D1_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44784.75</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DEG_D2_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44784.95833333334</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DEB_A3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44784.91666666666</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>15</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FOR_D3_11/08/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11/08/2022</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44785.16666666666</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>15</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DEG_D3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44785.16666666666</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>15</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DEB_A1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44785.41666666666</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DEB_A2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44785.47916666666</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>15</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FOR_D1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44785.75</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FOR_D2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44785.95833333334</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DEG_D1_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44785.75</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>15</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DEG_D2_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44785.95833333334</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>15</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DEB_A3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44785.91666666666</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>15</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FOR_D3_12/08/2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12/08/2022</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44786.16666666666</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DEG_D3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44786.16666666666</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>15</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DEB_A4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44786.35416666666</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FOR_D4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44786.95833333334</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DEG_D4_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44786.95833333334</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>15</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DEB_A3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44786.91666666666</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FOR_D3_13/08/2022</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13/08/2022</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44787.16666666666</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DEG_D3_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44787.16666666666</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>15</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DEB_A4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DEB</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44787.35416666666</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>15</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FOR_D4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44787.95833333334</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DEG_D4_14/08/2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DEG</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>14/08/2022</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44787.95833333334</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
